--- a/Inventory Management.xlsx
+++ b/Inventory Management.xlsx
@@ -8,12 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raque\Documents\Data Analytics\Excel Inventory Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{053B8A7E-11E8-4B55-B0DF-C0608F4E9D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D3A907-8F8A-4060-91A2-CF0601CBDD7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="192" windowWidth="26616" windowHeight="16296" xr2:uid="{8D47E978-C9FB-4658-8D6F-3353C65FCE9D}"/>
+    <workbookView xWindow="192" yWindow="192" windowWidth="26616" windowHeight="16296" activeTab="1" xr2:uid="{8D47E978-C9FB-4658-8D6F-3353C65FCE9D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
+    <sheet name="Stock_history" sheetId="2" r:id="rId2"/>
+    <sheet name="Forecast_history" sheetId="3" r:id="rId3"/>
+    <sheet name="Stock_staging" sheetId="4" r:id="rId4"/>
+    <sheet name="Forecast_staging" sheetId="5" r:id="rId5"/>
+    <sheet name="⚙" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,9 +38,95 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+  <si>
+    <t>Product code</t>
+  </si>
+  <si>
+    <t>Product name</t>
+  </si>
+  <si>
+    <t>Current stock</t>
+  </si>
+  <si>
+    <t>Estimated duration</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>Forecasted consumption</t>
+  </si>
+  <si>
+    <t>Blank notebook</t>
+  </si>
+  <si>
+    <t>Grid notebook</t>
+  </si>
+  <si>
+    <t>Dotted notebook</t>
+  </si>
+  <si>
+    <t>Line notebook</t>
+  </si>
+  <si>
+    <t>Medium stickers</t>
+  </si>
+  <si>
+    <t>Small stickers</t>
+  </si>
+  <si>
+    <t>N01</t>
+  </si>
+  <si>
+    <t>N02</t>
+  </si>
+  <si>
+    <t>N03</t>
+  </si>
+  <si>
+    <t>N04</t>
+  </si>
+  <si>
+    <t>S01</t>
+  </si>
+  <si>
+    <t>S02</t>
+  </si>
+  <si>
+    <t>⚙ Settings</t>
+  </si>
+  <si>
+    <t>Input directory</t>
+  </si>
+  <si>
+    <t>Input arquive directory</t>
+  </si>
+  <si>
+    <t>Output directory</t>
+  </si>
+  <si>
+    <t>C:\Users\raque\Documents\Data Analytics\Excel Inventory Management\input\archive\</t>
+  </si>
+  <si>
+    <t>C:\Users\raque\Documents\Data Analytics\Excel Inventory Management\input\</t>
+  </si>
+  <si>
+    <t>C:\Users\raque\Documents\Data Analytics\Excel Inventory Management\output</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-409]mmmm\ yyyy;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -43,13 +134,68 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -64,8 +210,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,12 +561,386 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4515088-37DC-4CE5-B19A-2E943FA6CB2B}">
+  <dimension ref="A2:P12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" customWidth="1"/>
+    <col min="3" max="4" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B2" s="9">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+    </row>
+    <row r="6" spans="1:16" s="3" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="7">
+        <f>B2</f>
+        <v>44986</v>
+      </c>
+      <c r="F6" s="7">
+        <f>EDATE(E6,1)</f>
+        <v>45017</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" ref="G6:P6" si="0">EDATE(F6,1)</f>
+        <v>45047</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="0"/>
+        <v>45078</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" si="0"/>
+        <v>45108</v>
+      </c>
+      <c r="J6" s="7">
+        <f t="shared" si="0"/>
+        <v>45139</v>
+      </c>
+      <c r="K6" s="7">
+        <f t="shared" si="0"/>
+        <v>45170</v>
+      </c>
+      <c r="L6" s="7">
+        <f t="shared" si="0"/>
+        <v>45200</v>
+      </c>
+      <c r="M6" s="7">
+        <f t="shared" si="0"/>
+        <v>45231</v>
+      </c>
+      <c r="N6" s="7">
+        <f t="shared" si="0"/>
+        <v>45261</v>
+      </c>
+      <c r="O6" s="7">
+        <f t="shared" si="0"/>
+        <v>45292</v>
+      </c>
+      <c r="P6" s="7">
+        <f t="shared" si="0"/>
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3269E71A-250B-4B4D-80B9-AEF38BF22674}">
+  <dimension ref="A1:X7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.77734375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" style="12" customWidth="1"/>
+    <col min="3" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13">
+        <v>44562</v>
+      </c>
+      <c r="D1" s="13">
+        <v>44593</v>
+      </c>
+      <c r="E1" s="13">
+        <v>44621</v>
+      </c>
+      <c r="F1" s="13">
+        <v>44652</v>
+      </c>
+      <c r="G1" s="13">
+        <v>44682</v>
+      </c>
+      <c r="H1" s="13">
+        <v>44713</v>
+      </c>
+      <c r="I1" s="13">
+        <v>44743</v>
+      </c>
+      <c r="J1" s="13">
+        <v>44774</v>
+      </c>
+      <c r="K1" s="13">
+        <v>44805</v>
+      </c>
+      <c r="L1" s="13">
+        <v>44835</v>
+      </c>
+      <c r="M1" s="13">
+        <v>44866</v>
+      </c>
+      <c r="N1" s="13">
+        <v>44896</v>
+      </c>
+      <c r="O1" s="13">
+        <v>44927</v>
+      </c>
+      <c r="P1" s="13">
+        <v>44958</v>
+      </c>
+      <c r="Q1" s="13">
+        <v>44986</v>
+      </c>
+      <c r="R1" s="13">
+        <v>45017</v>
+      </c>
+      <c r="S1" s="13">
+        <v>45047</v>
+      </c>
+      <c r="T1" s="13">
+        <v>45078</v>
+      </c>
+      <c r="U1" s="13">
+        <v>45108</v>
+      </c>
+      <c r="V1" s="13">
+        <v>45139</v>
+      </c>
+      <c r="W1" s="13">
+        <v>45170</v>
+      </c>
+      <c r="X1" s="13">
+        <v>45200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3DF198E-1B67-422B-B21F-7EAADF4396FB}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AADE2817-DE4D-4AD9-B175-C9ABF285C9E0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F67A9CF-F9A6-4D11-A7A5-2123147C83AD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E7FA1D-22C4-4025-8604-8063106C28AE}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A1" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>